--- a/views/borrow_records.xlsx
+++ b/views/borrow_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1010</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1011</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -478,16 +476,142 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
